--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2021/ifoCAst_error_tables_full_first_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2021/ifoCAst_error_tables_full_first_since_2021_GVA.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2068936910675003</v>
+        <v>0.2032824467099296</v>
       </c>
       <c r="C3">
-        <v>0.80337967456023</v>
+        <v>0.770590391097954</v>
       </c>
       <c r="D3">
-        <v>1.091753128138507</v>
+        <v>1.038934148045967</v>
       </c>
       <c r="E3">
-        <v>1.044869909672255</v>
+        <v>1.01928119184353</v>
       </c>
       <c r="F3">
-        <v>1.028663904348666</v>
+        <v>1.002957533928101</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02850856293769656</v>
+        <v>0.06949441886439447</v>
       </c>
       <c r="C4">
-        <v>0.6555949797045597</v>
+        <v>0.6540665022911312</v>
       </c>
       <c r="D4">
-        <v>0.6560565957012309</v>
+        <v>0.6393071570847193</v>
       </c>
       <c r="E4">
-        <v>0.8099732067798483</v>
+        <v>0.799566855919328</v>
       </c>
       <c r="F4">
-        <v>0.8169320675860795</v>
+        <v>0.8033784620121855</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
